--- a/data/Arkansas_Hub_Cooperative_Pro_Forma.xlsx
+++ b/data/Arkansas_Hub_Cooperative_Pro_Forma.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="7YwcWlwOeEuhuXtf6d4gc0dnC5f7V/n2k7Ei0r5GFcw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="iNun0Lo4YEmjQ8jsWyGl1jS7Eb2rDkHkhur2fQMnLiI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="233">
   <si>
     <t>ARKANSAS INNOVATION HUB COOPERATIVE</t>
   </si>
@@ -490,6 +490,21 @@
     <t>setup + run time</t>
   </si>
   <si>
+    <t>FARM STORE</t>
+  </si>
+  <si>
+    <t>Based on 2024</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
     <t>SUMMARY - ALL REVENUE STREAMS</t>
   </si>
   <si>
@@ -512,6 +527,9 @@
   </si>
   <si>
     <t>Event Rentals</t>
+  </si>
+  <si>
+    <t>Farm Store</t>
   </si>
   <si>
     <t>TOTAL ALL PROGRAMS</t>
@@ -915,7 +933,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,6 +1016,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE69138"/>
         <bgColor rgb="FFE69138"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
       </patternFill>
     </fill>
     <fill>
@@ -1099,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1339,12 +1363,30 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="15" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="16" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="16" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="16" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1401,10 +1443,10 @@
     <xf borderId="1" fillId="9" fontId="30" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="16" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="17" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="16" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="17" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1842,55 +1884,55 @@
       </c>
       <c r="B10" s="14">
         <f t="shared" si="1"/>
-        <v>216730.96</v>
+        <v>303465.432</v>
       </c>
       <c r="C10" s="14">
-        <f>'Revenue Projection'!C152</f>
+        <f>'Revenue Projection'!C158</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>'Revenue Projection'!D152</f>
-        <v>0</v>
+        <f>'Revenue Projection'!D158</f>
+        <v>3940.52</v>
       </c>
       <c r="E10" s="14">
-        <f>'Revenue Projection'!E152</f>
-        <v>0</v>
+        <f>'Revenue Projection'!E158</f>
+        <v>6383.568</v>
       </c>
       <c r="F10" s="14">
-        <f>'Revenue Projection'!F152</f>
-        <v>25125.12</v>
+        <f>'Revenue Projection'!F158</f>
+        <v>30467.424</v>
       </c>
       <c r="G10" s="14">
-        <f>'Revenue Projection'!G152</f>
-        <v>25905.12</v>
+        <f>'Revenue Projection'!G158</f>
+        <v>34567.192</v>
       </c>
       <c r="H10" s="14">
-        <f>'Revenue Projection'!H152</f>
-        <v>25455.12</v>
+        <f>'Revenue Projection'!H158</f>
+        <v>37018.284</v>
       </c>
       <c r="I10" s="14">
-        <f>'Revenue Projection'!I152</f>
-        <v>23025.12</v>
+        <f>'Revenue Projection'!I158</f>
+        <v>41073.104</v>
       </c>
       <c r="J10" s="14">
-        <f>'Revenue Projection'!J152</f>
-        <v>19681.56</v>
+        <f>'Revenue Projection'!J158</f>
+        <v>28620.592</v>
       </c>
       <c r="K10" s="14">
-        <f>'Revenue Projection'!K152</f>
-        <v>22561.56</v>
+        <f>'Revenue Projection'!K158</f>
+        <v>28367.124</v>
       </c>
       <c r="L10" s="14">
-        <f>'Revenue Projection'!L152</f>
-        <v>26765.12</v>
+        <f>'Revenue Projection'!L158</f>
+        <v>37601</v>
       </c>
       <c r="M10" s="14">
-        <f>'Revenue Projection'!M152</f>
-        <v>27985.12</v>
+        <f>'Revenue Projection'!M158</f>
+        <v>31480.268</v>
       </c>
       <c r="N10" s="14">
-        <f>'Revenue Projection'!N152</f>
-        <v>20227.12</v>
+        <f>'Revenue Projection'!N158</f>
+        <v>23946.356</v>
       </c>
       <c r="O10" s="15"/>
     </row>
@@ -1916,7 +1958,7 @@
       </c>
       <c r="B12" s="18">
         <f>SUM(C12:N12)</f>
-        <v>419005.96</v>
+        <v>505740.432</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" ref="C12:N12" si="2">C9+C10</f>
@@ -1924,47 +1966,47 @@
       </c>
       <c r="D12" s="18">
         <f t="shared" si="2"/>
-        <v>13410</v>
+        <v>17350.52</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="2"/>
-        <v>15420</v>
+        <v>21803.568</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="2"/>
-        <v>42155.12</v>
+        <v>47497.424</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="2"/>
-        <v>43335.12</v>
+        <v>51997.192</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="2"/>
-        <v>42885.12</v>
+        <v>54448.284</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="2"/>
-        <v>40855.12</v>
+        <v>58903.104</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>37511.56</v>
+        <v>46450.592</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="2"/>
-        <v>40791.56</v>
+        <v>46597.124</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="2"/>
-        <v>44995.12</v>
+        <v>55831</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="2"/>
-        <v>46615.12</v>
+        <v>50110.268</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="2"/>
-        <v>39257.12</v>
+        <v>42976.356</v>
       </c>
       <c r="O12" s="15"/>
     </row>
@@ -2283,7 +2325,7 @@
       </c>
       <c r="B22" s="24">
         <f>SUM(C22:N22)</f>
-        <v>831269.56</v>
+        <v>918004.032</v>
       </c>
       <c r="C22" s="25">
         <f t="shared" ref="C22:N22" si="5">sum(C15:C20)+C12</f>
@@ -2291,47 +2333,47 @@
       </c>
       <c r="D22" s="25">
         <f t="shared" si="5"/>
-        <v>47765.3</v>
+        <v>51705.82</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" si="5"/>
-        <v>49775.3</v>
+        <v>56158.868</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="5"/>
-        <v>76510.42</v>
+        <v>81852.724</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" si="5"/>
-        <v>77690.42</v>
+        <v>86352.492</v>
       </c>
       <c r="H22" s="25">
         <f t="shared" si="5"/>
-        <v>77240.42</v>
+        <v>88803.584</v>
       </c>
       <c r="I22" s="25">
         <f t="shared" si="5"/>
-        <v>75210.42</v>
+        <v>93258.404</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="5"/>
-        <v>71866.86</v>
+        <v>80805.892</v>
       </c>
       <c r="K22" s="25">
         <f t="shared" si="5"/>
-        <v>75146.86</v>
+        <v>80952.424</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="5"/>
-        <v>79350.42</v>
+        <v>90186.3</v>
       </c>
       <c r="M22" s="25">
         <f t="shared" si="5"/>
-        <v>80970.42</v>
+        <v>84465.568</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="5"/>
-        <v>73612.42</v>
+        <v>77331.656</v>
       </c>
       <c r="O22" s="26"/>
     </row>
@@ -3848,7 +3890,7 @@
       </c>
       <c r="B62" s="36">
         <f>SUM(C62:N62)</f>
-        <v>43649.56</v>
+        <v>130384.032</v>
       </c>
       <c r="C62" s="36">
         <f t="shared" ref="C62:N62" si="20">C22-C60</f>
@@ -3856,47 +3898,47 @@
       </c>
       <c r="D62" s="36">
         <f t="shared" si="20"/>
-        <v>-1279.7</v>
+        <v>2660.82</v>
       </c>
       <c r="E62" s="36">
         <f t="shared" si="20"/>
-        <v>730.3</v>
+        <v>7113.868</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="20"/>
-        <v>5345.42</v>
+        <v>10687.724</v>
       </c>
       <c r="G62" s="36">
         <f t="shared" si="20"/>
-        <v>6525.42</v>
+        <v>15187.492</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="20"/>
-        <v>6075.42</v>
+        <v>17638.584</v>
       </c>
       <c r="I62" s="36">
         <f t="shared" si="20"/>
-        <v>4045.42</v>
+        <v>22093.404</v>
       </c>
       <c r="J62" s="36">
         <f t="shared" si="20"/>
-        <v>701.86</v>
+        <v>9640.892</v>
       </c>
       <c r="K62" s="36">
         <f t="shared" si="20"/>
-        <v>3981.86</v>
+        <v>9787.424</v>
       </c>
       <c r="L62" s="36">
         <f t="shared" si="20"/>
-        <v>8185.42</v>
+        <v>19021.3</v>
       </c>
       <c r="M62" s="36">
         <f t="shared" si="20"/>
-        <v>9805.42</v>
+        <v>13300.568</v>
       </c>
       <c r="N62" s="36">
         <f t="shared" si="20"/>
-        <v>2447.42</v>
+        <v>6166.656</v>
       </c>
       <c r="O62" s="32"/>
     </row>
@@ -3960,43 +4002,43 @@
       </c>
       <c r="E65" s="45">
         <f t="shared" si="21"/>
-        <v>245805.6</v>
+        <v>249746.12</v>
       </c>
       <c r="F65" s="45">
         <f t="shared" si="21"/>
-        <v>246535.9</v>
+        <v>256859.988</v>
       </c>
       <c r="G65" s="45">
         <f t="shared" si="21"/>
-        <v>251881.32</v>
+        <v>267547.712</v>
       </c>
       <c r="H65" s="45">
         <f t="shared" si="21"/>
-        <v>258406.74</v>
+        <v>282735.204</v>
       </c>
       <c r="I65" s="45">
         <f t="shared" si="21"/>
-        <v>264482.16</v>
+        <v>300373.788</v>
       </c>
       <c r="J65" s="45">
         <f t="shared" si="21"/>
-        <v>268527.58</v>
+        <v>322467.192</v>
       </c>
       <c r="K65" s="45">
         <f t="shared" si="21"/>
-        <v>269229.44</v>
+        <v>332108.084</v>
       </c>
       <c r="L65" s="45">
         <f t="shared" si="21"/>
-        <v>273211.3</v>
+        <v>341895.508</v>
       </c>
       <c r="M65" s="45">
         <f t="shared" si="21"/>
-        <v>281396.72</v>
+        <v>360916.808</v>
       </c>
       <c r="N65" s="46">
         <f t="shared" si="21"/>
-        <v>291202.14</v>
+        <v>374217.376</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4005,7 +4047,7 @@
       </c>
       <c r="B66" s="48">
         <f>N66</f>
-        <v>293649.56</v>
+        <v>380384.032</v>
       </c>
       <c r="C66" s="49">
         <f t="shared" ref="C66:N66" si="22">C65+C62</f>
@@ -4013,47 +4055,47 @@
       </c>
       <c r="D66" s="49">
         <f t="shared" si="22"/>
-        <v>245805.6</v>
+        <v>249746.12</v>
       </c>
       <c r="E66" s="49">
         <f t="shared" si="22"/>
-        <v>246535.9</v>
+        <v>256859.988</v>
       </c>
       <c r="F66" s="49">
         <f t="shared" si="22"/>
-        <v>251881.32</v>
+        <v>267547.712</v>
       </c>
       <c r="G66" s="49">
         <f t="shared" si="22"/>
-        <v>258406.74</v>
+        <v>282735.204</v>
       </c>
       <c r="H66" s="49">
         <f t="shared" si="22"/>
-        <v>264482.16</v>
+        <v>300373.788</v>
       </c>
       <c r="I66" s="49">
         <f t="shared" si="22"/>
-        <v>268527.58</v>
+        <v>322467.192</v>
       </c>
       <c r="J66" s="49">
         <f t="shared" si="22"/>
-        <v>269229.44</v>
+        <v>332108.084</v>
       </c>
       <c r="K66" s="49">
         <f t="shared" si="22"/>
-        <v>273211.3</v>
+        <v>341895.508</v>
       </c>
       <c r="L66" s="49">
         <f t="shared" si="22"/>
-        <v>281396.72</v>
+        <v>360916.808</v>
       </c>
       <c r="M66" s="49">
         <f t="shared" si="22"/>
-        <v>291202.14</v>
+        <v>374217.376</v>
       </c>
       <c r="N66" s="49">
         <f t="shared" si="22"/>
-        <v>293649.56</v>
+        <v>380384.032</v>
       </c>
       <c r="O66" s="50"/>
     </row>
@@ -9695,589 +9737,848 @@
       <c r="C142" s="55"/>
     </row>
     <row r="143">
-      <c r="A143" s="55"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
+      <c r="A143" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="99"/>
+      <c r="C143" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="L143" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="N143" s="100" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="B144" s="99"/>
-      <c r="C144" s="100" t="s">
+      <c r="A144" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="101">
+        <v>16729.08</v>
+      </c>
+      <c r="D144" s="102">
+        <v>17351.3</v>
+      </c>
+      <c r="E144" s="102">
+        <v>23458.92</v>
+      </c>
+      <c r="F144" s="102">
+        <v>20855.76</v>
+      </c>
+      <c r="G144" s="102">
+        <v>29155.18</v>
+      </c>
+      <c r="H144" s="102">
+        <v>36407.91</v>
+      </c>
+      <c r="I144" s="102">
+        <v>52619.96</v>
+      </c>
+      <c r="J144" s="102">
+        <v>29847.58</v>
+      </c>
+      <c r="K144" s="102">
+        <v>22013.91</v>
+      </c>
+      <c r="L144" s="102">
+        <v>34589.7</v>
+      </c>
+      <c r="M144" s="102">
+        <v>16237.87</v>
+      </c>
+      <c r="N144" s="102">
+        <v>16798.09</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="55"/>
+      <c r="C145" s="103">
+        <f t="shared" ref="C145:N145" si="51">C144*0.6</f>
+        <v>10037.448</v>
+      </c>
+      <c r="D145" s="103">
+        <f t="shared" si="51"/>
+        <v>10410.78</v>
+      </c>
+      <c r="E145" s="103">
+        <f t="shared" si="51"/>
+        <v>14075.352</v>
+      </c>
+      <c r="F145" s="103">
+        <f t="shared" si="51"/>
+        <v>12513.456</v>
+      </c>
+      <c r="G145" s="103">
+        <f t="shared" si="51"/>
+        <v>17493.108</v>
+      </c>
+      <c r="H145" s="103">
+        <f t="shared" si="51"/>
+        <v>21844.746</v>
+      </c>
+      <c r="I145" s="103">
+        <f t="shared" si="51"/>
+        <v>31571.976</v>
+      </c>
+      <c r="J145" s="103">
+        <f t="shared" si="51"/>
+        <v>17908.548</v>
+      </c>
+      <c r="K145" s="103">
+        <f t="shared" si="51"/>
+        <v>13208.346</v>
+      </c>
+      <c r="L145" s="103">
+        <f t="shared" si="51"/>
+        <v>20753.82</v>
+      </c>
+      <c r="M145" s="103">
+        <f t="shared" si="51"/>
+        <v>9742.722</v>
+      </c>
+      <c r="N145" s="103">
+        <f t="shared" si="51"/>
+        <v>10078.854</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="55"/>
+      <c r="C146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="D146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="E146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="F146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="G146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="H146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="I146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="J146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="K146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="L146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="M146" s="101">
+        <v>3000.0</v>
+      </c>
+      <c r="N146" s="101">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" s="55"/>
+      <c r="C147" s="103">
+        <f t="shared" ref="C147:N147" si="52">C144-C145-C146</f>
+        <v>3691.632</v>
+      </c>
+      <c r="D147" s="103">
+        <f t="shared" si="52"/>
+        <v>3940.52</v>
+      </c>
+      <c r="E147" s="103">
+        <f t="shared" si="52"/>
+        <v>6383.568</v>
+      </c>
+      <c r="F147" s="103">
+        <f t="shared" si="52"/>
+        <v>5342.304</v>
+      </c>
+      <c r="G147" s="103">
+        <f t="shared" si="52"/>
+        <v>8662.072</v>
+      </c>
+      <c r="H147" s="103">
+        <f t="shared" si="52"/>
+        <v>11563.164</v>
+      </c>
+      <c r="I147" s="103">
+        <f t="shared" si="52"/>
+        <v>18047.984</v>
+      </c>
+      <c r="J147" s="103">
+        <f t="shared" si="52"/>
+        <v>8939.032</v>
+      </c>
+      <c r="K147" s="103">
+        <f t="shared" si="52"/>
+        <v>5805.564</v>
+      </c>
+      <c r="L147" s="103">
+        <f t="shared" si="52"/>
+        <v>10835.88</v>
+      </c>
+      <c r="M147" s="103">
+        <f t="shared" si="52"/>
+        <v>3495.148</v>
+      </c>
+      <c r="N147" s="103">
+        <f t="shared" si="52"/>
+        <v>3719.236</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="55"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="105"/>
+      <c r="C149" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="100" t="s">
+      <c r="D149" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="100" t="s">
+      <c r="E149" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="100" t="s">
+      <c r="F149" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="G144" s="100" t="s">
+      <c r="G149" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H144" s="100" t="s">
+      <c r="H149" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="I144" s="100" t="s">
+      <c r="I149" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="J144" s="100" t="s">
+      <c r="J149" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="K144" s="100" t="s">
+      <c r="K149" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="L144" s="100" t="s">
+      <c r="L149" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M144" s="100" t="s">
+      <c r="M149" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N144" s="100" t="s">
+      <c r="N149" s="106" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="67"/>
-      <c r="I145" s="67"/>
-      <c r="J145" s="67"/>
-      <c r="K145" s="67"/>
-      <c r="L145" s="67"/>
-      <c r="M145" s="67"/>
-      <c r="N145" s="67"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B146" s="101"/>
-      <c r="C146" s="72">
-        <f t="shared" ref="C146:N146" si="51">C26</f>
-        <v>0</v>
-      </c>
-      <c r="D146" s="72">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="72">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="F146" s="72">
-        <f t="shared" si="51"/>
+    <row r="150">
+      <c r="A150" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="67"/>
+      <c r="J150" s="67"/>
+      <c r="K150" s="67"/>
+      <c r="L150" s="67"/>
+      <c r="M150" s="67"/>
+      <c r="N150" s="67"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="107"/>
+      <c r="C151" s="72">
+        <f t="shared" ref="C151:N151" si="53">C26</f>
+        <v>0</v>
+      </c>
+      <c r="D151" s="72">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="72">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="G146" s="72">
-        <f t="shared" si="51"/>
+      <c r="G151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="H146" s="72">
-        <f t="shared" si="51"/>
+      <c r="H151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="I146" s="72">
-        <f t="shared" si="51"/>
+      <c r="I151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="J146" s="72">
-        <f t="shared" si="51"/>
+      <c r="J151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="K146" s="72">
-        <f t="shared" si="51"/>
+      <c r="K151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="L146" s="72">
-        <f t="shared" si="51"/>
+      <c r="L151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="M146" s="72">
-        <f t="shared" si="51"/>
+      <c r="M151" s="72">
+        <f t="shared" si="53"/>
         <v>10530</v>
       </c>
-      <c r="N146" s="72">
-        <f t="shared" si="51"/>
+      <c r="N151" s="72">
+        <f t="shared" si="53"/>
         <v>4212</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B147" s="101"/>
-      <c r="C147" s="72">
-        <f t="shared" ref="C147:N147" si="52">C50</f>
-        <v>0</v>
-      </c>
-      <c r="D147" s="72">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="72">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="72">
-        <f t="shared" si="52"/>
+    <row r="152">
+      <c r="A152" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="107"/>
+      <c r="C152" s="72">
+        <f t="shared" ref="C152:N152" si="54">C50</f>
+        <v>0</v>
+      </c>
+      <c r="D152" s="72">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="72">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="G147" s="72">
-        <f t="shared" si="52"/>
+      <c r="G152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="H147" s="72">
-        <f t="shared" si="52"/>
+      <c r="H152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="I147" s="72">
-        <f t="shared" si="52"/>
+      <c r="I152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="J147" s="72">
-        <f t="shared" si="52"/>
+      <c r="J152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="K147" s="72">
-        <f t="shared" si="52"/>
+      <c r="K152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="L147" s="72">
-        <f t="shared" si="52"/>
+      <c r="L152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="M147" s="72">
-        <f t="shared" si="52"/>
+      <c r="M152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
-      <c r="N147" s="72">
-        <f t="shared" si="52"/>
+      <c r="N152" s="72">
+        <f t="shared" si="54"/>
         <v>2288</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="101"/>
-      <c r="C148" s="72">
-        <f t="shared" ref="C148:N148" si="53">C74</f>
-        <v>0</v>
-      </c>
-      <c r="D148" s="72">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="72">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="F148" s="72">
-        <f t="shared" si="53"/>
-        <v>2520</v>
-      </c>
-      <c r="G148" s="72">
-        <f t="shared" si="53"/>
-        <v>2880</v>
-      </c>
-      <c r="H148" s="72">
-        <f t="shared" si="53"/>
-        <v>1800</v>
-      </c>
-      <c r="I148" s="72">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="72">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="K148" s="72">
-        <f t="shared" si="53"/>
-        <v>2880</v>
-      </c>
-      <c r="L148" s="72">
-        <f t="shared" si="53"/>
-        <v>3240</v>
-      </c>
-      <c r="M148" s="72">
-        <f t="shared" si="53"/>
-        <v>3960</v>
-      </c>
-      <c r="N148" s="72">
-        <f t="shared" si="53"/>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B149" s="101"/>
-      <c r="C149" s="72">
-        <f t="shared" ref="C149:N149" si="54">C97</f>
-        <v>0</v>
-      </c>
-      <c r="D149" s="72">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="72">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-      <c r="G149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-      <c r="H149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-      <c r="I149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-      <c r="J149" s="72">
-        <f t="shared" si="54"/>
-        <v>3343.56</v>
-      </c>
-      <c r="K149" s="72">
-        <f t="shared" si="54"/>
-        <v>3343.56</v>
-      </c>
-      <c r="L149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-      <c r="M149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-      <c r="N149" s="72">
-        <f t="shared" si="54"/>
-        <v>6687.12</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="B150" s="101"/>
-      <c r="C150" s="72">
-        <f t="shared" ref="C150:N150" si="55">C117</f>
-        <v>0</v>
-      </c>
-      <c r="D150" s="72">
+    <row r="153">
+      <c r="A153" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="107"/>
+      <c r="C153" s="72">
+        <f t="shared" ref="C153:N153" si="55">C74</f>
+        <v>0</v>
+      </c>
+      <c r="D153" s="72">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="E150" s="72">
+      <c r="E153" s="72">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="F150" s="72">
-        <f t="shared" si="55"/>
-        <v>2100</v>
-      </c>
-      <c r="G150" s="72">
+      <c r="F153" s="72">
         <f t="shared" si="55"/>
         <v>2520</v>
       </c>
-      <c r="H150" s="72">
+      <c r="G153" s="72">
         <f t="shared" si="55"/>
-        <v>3150</v>
-      </c>
-      <c r="I150" s="72">
+        <v>2880</v>
+      </c>
+      <c r="H153" s="72">
+        <f t="shared" si="55"/>
+        <v>1800</v>
+      </c>
+      <c r="I153" s="72">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="72">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="72">
+        <f t="shared" si="55"/>
+        <v>2880</v>
+      </c>
+      <c r="L153" s="72">
+        <f t="shared" si="55"/>
+        <v>3240</v>
+      </c>
+      <c r="M153" s="72">
+        <f t="shared" si="55"/>
+        <v>3960</v>
+      </c>
+      <c r="N153" s="72">
         <f t="shared" si="55"/>
         <v>2520</v>
       </c>
-      <c r="J150" s="72">
-        <f t="shared" si="55"/>
-        <v>2520</v>
-      </c>
-      <c r="K150" s="72">
-        <f t="shared" si="55"/>
-        <v>2520</v>
-      </c>
-      <c r="L150" s="72">
-        <f t="shared" si="55"/>
-        <v>2520</v>
-      </c>
-      <c r="M150" s="72">
-        <f t="shared" si="55"/>
-        <v>2520</v>
-      </c>
-      <c r="N150" s="72">
-        <f t="shared" si="55"/>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B151" s="79"/>
-      <c r="C151" s="72">
-        <f t="shared" ref="C151:N151" si="56">C136</f>
-        <v>0</v>
-      </c>
-      <c r="D151" s="72">
+    </row>
+    <row r="154">
+      <c r="A154" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="107"/>
+      <c r="C154" s="72">
+        <f t="shared" ref="C154:N154" si="56">C97</f>
+        <v>0</v>
+      </c>
+      <c r="D154" s="72">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="E151" s="72">
+      <c r="E154" s="72">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F151" s="72">
+      <c r="F154" s="72">
         <f t="shared" si="56"/>
-        <v>1000</v>
-      </c>
-      <c r="G151" s="72">
+        <v>6687.12</v>
+      </c>
+      <c r="G154" s="72">
         <f t="shared" si="56"/>
-        <v>1000</v>
-      </c>
-      <c r="H151" s="72">
+        <v>6687.12</v>
+      </c>
+      <c r="H154" s="72">
         <f t="shared" si="56"/>
-        <v>1000</v>
-      </c>
-      <c r="I151" s="72">
+        <v>6687.12</v>
+      </c>
+      <c r="I154" s="72">
         <f t="shared" si="56"/>
-        <v>1000</v>
-      </c>
-      <c r="J151" s="72">
+        <v>6687.12</v>
+      </c>
+      <c r="J154" s="72">
         <f t="shared" si="56"/>
-        <v>1000</v>
-      </c>
-      <c r="K151" s="72">
+        <v>3343.56</v>
+      </c>
+      <c r="K154" s="72">
         <f t="shared" si="56"/>
-        <v>1000</v>
-      </c>
-      <c r="L151" s="72">
+        <v>3343.56</v>
+      </c>
+      <c r="L154" s="72">
         <f t="shared" si="56"/>
-        <v>1500</v>
-      </c>
-      <c r="M151" s="72">
+        <v>6687.12</v>
+      </c>
+      <c r="M154" s="72">
         <f t="shared" si="56"/>
-        <v>2000</v>
-      </c>
-      <c r="N151" s="72">
+        <v>6687.12</v>
+      </c>
+      <c r="N154" s="72">
         <f t="shared" si="56"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="B152" s="79"/>
-      <c r="C152" s="76">
-        <f t="shared" ref="C152:N152" si="57">SUM(C146:C151)</f>
-        <v>0</v>
-      </c>
-      <c r="D152" s="76">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="E152" s="76">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="F152" s="76">
-        <f t="shared" si="57"/>
-        <v>25125.12</v>
-      </c>
-      <c r="G152" s="76">
-        <f t="shared" si="57"/>
-        <v>25905.12</v>
-      </c>
-      <c r="H152" s="76">
-        <f t="shared" si="57"/>
-        <v>25455.12</v>
-      </c>
-      <c r="I152" s="76">
-        <f t="shared" si="57"/>
-        <v>23025.12</v>
-      </c>
-      <c r="J152" s="76">
-        <f t="shared" si="57"/>
-        <v>19681.56</v>
-      </c>
-      <c r="K152" s="76">
-        <f t="shared" si="57"/>
-        <v>22561.56</v>
-      </c>
-      <c r="L152" s="76">
-        <f t="shared" si="57"/>
-        <v>26765.12</v>
-      </c>
-      <c r="M152" s="76">
-        <f t="shared" si="57"/>
-        <v>27985.12</v>
-      </c>
-      <c r="N152" s="76">
-        <f t="shared" si="57"/>
-        <v>20227.12</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="55"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="55"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="55"/>
-      <c r="J153" s="55"/>
-      <c r="K153" s="55"/>
-      <c r="L153" s="55"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="55"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="B154" s="103"/>
-      <c r="C154" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="H154" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="J154" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="K154" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="L154" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="M154" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="N154" s="104" t="s">
-        <v>16</v>
+        <v>6687.12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" s="55"/>
-      <c r="C155" s="79">
-        <f t="shared" ref="C155:N155" si="58">sum(C121,C101,C79,C55,C31,C140)</f>
-        <v>0</v>
-      </c>
-      <c r="D155" s="79">
+        <v>167</v>
+      </c>
+      <c r="B155" s="107"/>
+      <c r="C155" s="72">
+        <f t="shared" ref="C155:N155" si="57">C117</f>
+        <v>0</v>
+      </c>
+      <c r="D155" s="72">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="72">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="72">
+        <f t="shared" si="57"/>
+        <v>2100</v>
+      </c>
+      <c r="G155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+      <c r="H155" s="72">
+        <f t="shared" si="57"/>
+        <v>3150</v>
+      </c>
+      <c r="I155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+      <c r="J155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+      <c r="K155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+      <c r="L155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+      <c r="M155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+      <c r="N155" s="72">
+        <f t="shared" si="57"/>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="79"/>
+      <c r="C156" s="72">
+        <f t="shared" ref="C156:N156" si="58">C136</f>
+        <v>0</v>
+      </c>
+      <c r="D156" s="72">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="E155" s="79">
+      <c r="E156" s="72">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="F155" s="79">
+      <c r="F156" s="72">
         <f t="shared" si="58"/>
-        <v>1.946875</v>
-      </c>
-      <c r="G155" s="79">
+        <v>1000</v>
+      </c>
+      <c r="G156" s="72">
         <f t="shared" si="58"/>
-        <v>2.0125</v>
-      </c>
-      <c r="H155" s="79">
+        <v>1000</v>
+      </c>
+      <c r="H156" s="72">
         <f t="shared" si="58"/>
-        <v>2.040625</v>
-      </c>
-      <c r="I155" s="79">
+        <v>1000</v>
+      </c>
+      <c r="I156" s="72">
         <f t="shared" si="58"/>
-        <v>1.8875</v>
-      </c>
-      <c r="J155" s="79">
+        <v>1000</v>
+      </c>
+      <c r="J156" s="72">
         <f t="shared" si="58"/>
-        <v>1.6375</v>
-      </c>
-      <c r="K155" s="79">
+        <v>1000</v>
+      </c>
+      <c r="K156" s="72">
         <f t="shared" si="58"/>
-        <v>1.7625</v>
-      </c>
-      <c r="L155" s="79">
+        <v>1000</v>
+      </c>
+      <c r="L156" s="72">
         <f t="shared" si="58"/>
-        <v>2.059375</v>
-      </c>
-      <c r="M155" s="79">
+        <v>1500</v>
+      </c>
+      <c r="M156" s="72">
         <f t="shared" si="58"/>
-        <v>2.121875</v>
-      </c>
-      <c r="N155" s="79">
+        <v>2000</v>
+      </c>
+      <c r="N156" s="72">
         <f t="shared" si="58"/>
-        <v>1.609375</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="55"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="55"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
+      <c r="A157" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="79"/>
+      <c r="C157" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="D157" s="72">
+        <f t="shared" ref="D157:N157" si="59">D147</f>
+        <v>3940.52</v>
+      </c>
+      <c r="E157" s="72">
+        <f t="shared" si="59"/>
+        <v>6383.568</v>
+      </c>
+      <c r="F157" s="72">
+        <f t="shared" si="59"/>
+        <v>5342.304</v>
+      </c>
+      <c r="G157" s="72">
+        <f t="shared" si="59"/>
+        <v>8662.072</v>
+      </c>
+      <c r="H157" s="72">
+        <f t="shared" si="59"/>
+        <v>11563.164</v>
+      </c>
+      <c r="I157" s="72">
+        <f t="shared" si="59"/>
+        <v>18047.984</v>
+      </c>
+      <c r="J157" s="72">
+        <f t="shared" si="59"/>
+        <v>8939.032</v>
+      </c>
+      <c r="K157" s="72">
+        <f t="shared" si="59"/>
+        <v>5805.564</v>
+      </c>
+      <c r="L157" s="72">
+        <f t="shared" si="59"/>
+        <v>10835.88</v>
+      </c>
+      <c r="M157" s="72">
+        <f t="shared" si="59"/>
+        <v>3495.148</v>
+      </c>
+      <c r="N157" s="72">
+        <f t="shared" si="59"/>
+        <v>3719.236</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="55"/>
-      <c r="B158" s="55"/>
-      <c r="C158" s="55"/>
+      <c r="A158" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="79"/>
+      <c r="C158" s="76">
+        <f t="shared" ref="C158:N158" si="60">SUM(C151:C157)</f>
+        <v>0</v>
+      </c>
+      <c r="D158" s="76">
+        <f t="shared" si="60"/>
+        <v>3940.52</v>
+      </c>
+      <c r="E158" s="76">
+        <f t="shared" si="60"/>
+        <v>6383.568</v>
+      </c>
+      <c r="F158" s="76">
+        <f t="shared" si="60"/>
+        <v>30467.424</v>
+      </c>
+      <c r="G158" s="76">
+        <f t="shared" si="60"/>
+        <v>34567.192</v>
+      </c>
+      <c r="H158" s="76">
+        <f t="shared" si="60"/>
+        <v>37018.284</v>
+      </c>
+      <c r="I158" s="76">
+        <f t="shared" si="60"/>
+        <v>41073.104</v>
+      </c>
+      <c r="J158" s="76">
+        <f t="shared" si="60"/>
+        <v>28620.592</v>
+      </c>
+      <c r="K158" s="76">
+        <f t="shared" si="60"/>
+        <v>28367.124</v>
+      </c>
+      <c r="L158" s="76">
+        <f t="shared" si="60"/>
+        <v>37601</v>
+      </c>
+      <c r="M158" s="76">
+        <f t="shared" si="60"/>
+        <v>31480.268</v>
+      </c>
+      <c r="N158" s="76">
+        <f t="shared" si="60"/>
+        <v>23946.356</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="55"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="55"/>
+      <c r="G159" s="55"/>
+      <c r="H159" s="55"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="55"/>
+      <c r="K159" s="55"/>
+      <c r="L159" s="55"/>
+      <c r="M159" s="55"/>
+      <c r="N159" s="55"/>
     </row>
     <row r="160">
-      <c r="A160" s="55"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="55"/>
+      <c r="A160" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" s="109"/>
+      <c r="C160" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H160" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="J160" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K160" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L160" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="M160" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="N160" s="110" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="55"/>
+      <c r="A161" s="69" t="s">
+        <v>172</v>
+      </c>
       <c r="B161" s="55"/>
-      <c r="C161" s="55"/>
+      <c r="C161" s="79">
+        <f t="shared" ref="C161:N161" si="61">sum(C121,C101,C79,C55,C31,C140)</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="79">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="E161" s="79">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="79">
+        <f t="shared" si="61"/>
+        <v>1.946875</v>
+      </c>
+      <c r="G161" s="79">
+        <f t="shared" si="61"/>
+        <v>2.0125</v>
+      </c>
+      <c r="H161" s="79">
+        <f t="shared" si="61"/>
+        <v>2.040625</v>
+      </c>
+      <c r="I161" s="79">
+        <f t="shared" si="61"/>
+        <v>1.8875</v>
+      </c>
+      <c r="J161" s="79">
+        <f t="shared" si="61"/>
+        <v>1.6375</v>
+      </c>
+      <c r="K161" s="79">
+        <f t="shared" si="61"/>
+        <v>1.7625</v>
+      </c>
+      <c r="L161" s="79">
+        <f t="shared" si="61"/>
+        <v>2.059375</v>
+      </c>
+      <c r="M161" s="79">
+        <f t="shared" si="61"/>
+        <v>2.121875</v>
+      </c>
+      <c r="N161" s="79">
+        <f t="shared" si="61"/>
+        <v>1.609375</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="55"/>
@@ -14438,6 +14739,36 @@
       <c r="A993" s="55"/>
       <c r="B993" s="55"/>
       <c r="C993" s="55"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="55"/>
+      <c r="B994" s="55"/>
+      <c r="C994" s="55"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="55"/>
+      <c r="B995" s="55"/>
+      <c r="C995" s="55"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="55"/>
+      <c r="B996" s="55"/>
+      <c r="C996" s="55"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="55"/>
+      <c r="B997" s="55"/>
+      <c r="C997" s="55"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="55"/>
+      <c r="B998" s="55"/>
+      <c r="C998" s="55"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="55"/>
+      <c r="B999" s="55"/>
+      <c r="C999" s="55"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14464,83 +14795,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="61" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
-      <c r="E1" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="106" t="s">
-        <v>172</v>
+      <c r="E1" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>178</v>
       </c>
       <c r="J1" s="55"/>
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B2" s="55">
         <v>80.0</v>
       </c>
       <c r="C2" s="55"/>
-      <c r="D2" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="108">
+      <c r="D2" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="114">
         <v>30000.0</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F2" s="114">
         <v>40000.0</v>
       </c>
-      <c r="G2" s="108">
+      <c r="G2" s="114">
         <v>45000.0</v>
       </c>
-      <c r="H2" s="109">
+      <c r="H2" s="115">
         <v>55000.0</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="115">
         <v>75000.0</v>
       </c>
       <c r="J2" s="55"/>
     </row>
     <row r="3">
       <c r="A3" s="55" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B3" s="55">
         <v>56.0</v>
       </c>
       <c r="C3" s="55"/>
-      <c r="D3" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="108">
+      <c r="D3" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="114">
         <v>0.0</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="114">
         <f>F2*B13</f>
         <v>2600</v>
       </c>
-      <c r="G3" s="108">
+      <c r="G3" s="114">
         <f>G2*B13</f>
         <v>2925</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="114">
         <f>H2*B13</f>
         <v>3575</v>
       </c>
-      <c r="I3" s="108">
+      <c r="I3" s="114">
         <f>I2*B13</f>
         <v>4875</v>
       </c>
@@ -14548,32 +14879,32 @@
     </row>
     <row r="4">
       <c r="A4" s="55" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B4" s="55">
         <v>56.0</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="108">
+      <c r="D4" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="114">
         <f>E2*B19</f>
         <v>3270</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="114">
         <f>F2*B19</f>
         <v>4360</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="114">
         <f>G2*B19</f>
         <v>4905</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="114">
         <f>H2*B19</f>
         <v>5995</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4" s="114">
         <f>I2*B19</f>
         <v>8175</v>
       </c>
@@ -14581,31 +14912,31 @@
     </row>
     <row r="5">
       <c r="A5" s="55" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B5" s="55">
         <v>59.0</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="107" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="108">
+      <c r="D5" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="114">
         <v>0.0</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="114">
         <f>B28</f>
         <v>10500</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="114">
         <f>B28</f>
         <v>10500</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="114">
         <f>B28</f>
         <v>10500</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5" s="114">
         <f>B28</f>
         <v>10500</v>
       </c>
@@ -14613,31 +14944,31 @@
     </row>
     <row r="6">
       <c r="A6" s="93" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B6" s="55">
         <v>251.0</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="108">
+      <c r="D6" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="114">
         <v>0.0</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="114">
         <f>F2*B23</f>
         <v>800</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="114">
         <f>G2*B23</f>
         <v>900</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="114">
         <f>H2*B23</f>
         <v>1100</v>
       </c>
-      <c r="I6" s="108">
+      <c r="I6" s="114">
         <f>I2*B23</f>
         <v>1500</v>
       </c>
@@ -14645,32 +14976,32 @@
     </row>
     <row r="7">
       <c r="A7" s="93" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B7" s="55">
         <v>2080.0</v>
       </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="108">
+      <c r="D7" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="114">
         <f>B40</f>
         <v>2130</v>
       </c>
-      <c r="F7" s="108">
+      <c r="F7" s="114">
         <f>B40</f>
         <v>2130</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="114">
         <f>B40</f>
         <v>2130</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="114">
         <f>B40</f>
         <v>2130</v>
       </c>
-      <c r="I7" s="108">
+      <c r="I7" s="114">
         <f>B40</f>
         <v>2130</v>
       </c>
@@ -14678,61 +15009,61 @@
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B8" s="61">
         <v>1829.0</v>
       </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="110">
+      <c r="D8" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="116">
         <f t="shared" ref="E8:I8" si="1">SUM(E2:E7)</f>
         <v>35400</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="116">
         <f t="shared" si="1"/>
         <v>60390</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="116">
         <f t="shared" si="1"/>
         <v>66360</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="116">
         <f t="shared" si="1"/>
         <v>78300</v>
       </c>
-      <c r="I8" s="110">
+      <c r="I8" s="116">
         <f t="shared" si="1"/>
         <v>102180</v>
       </c>
-      <c r="J8" s="111"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="110">
+      <c r="D9" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="116">
         <f t="shared" ref="E9:I9" si="2">E8/12</f>
         <v>2950</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="116">
         <f t="shared" si="2"/>
         <v>5032.5</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="116">
         <f t="shared" si="2"/>
         <v>5530</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="116">
         <f t="shared" si="2"/>
         <v>6525</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="116">
         <f t="shared" si="2"/>
         <v>8515</v>
       </c>
@@ -14740,363 +15071,363 @@
     </row>
     <row r="10">
       <c r="A10" s="61" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
-      <c r="D10" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="110">
+      <c r="D10" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="116">
         <f t="shared" ref="E10:I10" si="3">E8/52</f>
         <v>680.7692308</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="116">
         <f t="shared" si="3"/>
         <v>1161.346154</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="116">
         <f t="shared" si="3"/>
         <v>1276.153846</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="116">
         <f t="shared" si="3"/>
         <v>1505.769231</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="116">
         <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="J10" s="55"/>
     </row>
     <row r="11">
-      <c r="A11" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="113">
+      <c r="A11" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="119">
         <v>0.045</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="110">
+      <c r="C11" s="120"/>
+      <c r="D11" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="116">
         <f>E8/B8</f>
         <v>19.35483871</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="116">
         <f>F8/B8</f>
         <v>33.01804265</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="116">
         <f>G8/B8</f>
         <v>36.28212138</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="116">
         <f>H8/B8</f>
         <v>42.81027884</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="116">
         <f>I8/B8</f>
         <v>55.86659377</v>
       </c>
       <c r="J11" s="55"/>
     </row>
     <row r="12">
-      <c r="A12" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="113">
+      <c r="A12" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="119">
         <v>0.02</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="110">
+      <c r="C12" s="120"/>
+      <c r="D12" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="116">
         <f t="shared" ref="E12:I12" si="4">E11*1.6</f>
         <v>30.96774194</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="116">
         <f t="shared" si="4"/>
         <v>52.82886823</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="116">
         <f t="shared" si="4"/>
         <v>58.0513942</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="116">
         <f t="shared" si="4"/>
         <v>68.49644615</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="116">
         <f t="shared" si="4"/>
         <v>89.38655003</v>
       </c>
-      <c r="J12" s="116"/>
+      <c r="J12" s="122"/>
     </row>
     <row r="13">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124">
         <f>SUM(B11:B12)</f>
         <v>0.065</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="120">
+      <c r="C13" s="120"/>
+      <c r="D13" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="126">
         <f t="shared" ref="E13:I13" si="5">E9/E12</f>
         <v>95.26041667</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="126">
         <f t="shared" si="5"/>
         <v>95.26041667</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="126">
         <f t="shared" si="5"/>
         <v>95.26041667</v>
       </c>
-      <c r="H13" s="120">
+      <c r="H13" s="126">
         <f t="shared" si="5"/>
         <v>95.26041667</v>
       </c>
-      <c r="I13" s="120">
+      <c r="I13" s="126">
         <f t="shared" si="5"/>
         <v>95.26041667</v>
       </c>
-      <c r="J13" s="116"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="120">
+      <c r="D14" s="125" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="126">
         <f t="shared" ref="E14:I14" si="6">E10/E12</f>
         <v>21.98317308</v>
       </c>
-      <c r="F14" s="120">
+      <c r="F14" s="126">
         <f t="shared" si="6"/>
         <v>21.98317308</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="126">
         <f t="shared" si="6"/>
         <v>21.98317308</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="126">
         <f t="shared" si="6"/>
         <v>21.98317308</v>
       </c>
-      <c r="I14" s="120">
+      <c r="I14" s="126">
         <f t="shared" si="6"/>
         <v>21.98317308</v>
       </c>
-      <c r="J14" s="116"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15">
-      <c r="A15" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="114"/>
+      <c r="A15" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
-      <c r="J15" s="116"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16">
-      <c r="A16" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="113">
+      <c r="A16" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="119">
         <v>0.0765</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="111">
+      <c r="C16" s="120"/>
+      <c r="D16" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="117">
         <v>0.0</v>
       </c>
-      <c r="F16" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="123">
+      <c r="F16" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="129">
         <v>44200.0</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="129">
         <v>44292.0</v>
       </c>
-      <c r="I16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="116"/>
+      <c r="I16" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" s="122"/>
     </row>
     <row r="17">
-      <c r="A17" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="113">
+      <c r="A17" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="119">
         <v>0.0035</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="116"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="122"/>
     </row>
     <row r="18">
-      <c r="A18" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="113">
+      <c r="A18" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="119">
         <v>0.029</v>
       </c>
       <c r="C18" s="55"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="116"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="122"/>
     </row>
     <row r="19">
       <c r="A19" s="55"/>
-      <c r="B19" s="118">
+      <c r="B19" s="124">
         <f>SUM(B16:B18)</f>
         <v>0.109</v>
       </c>
       <c r="C19" s="55"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="116"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="122"/>
     </row>
     <row r="20">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="116"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="116"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22">
-      <c r="A22" s="121" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="116"/>
+      <c r="A22" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="128"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="23">
-      <c r="A23" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="113">
+      <c r="A23" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="119">
         <v>0.02</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="131"/>
     </row>
     <row r="24">
-      <c r="A24" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="126">
+      <c r="A24" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="132">
         <v>5000.0</v>
       </c>
       <c r="C24" s="55"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25">
-      <c r="A25" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="126">
+      <c r="A25" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="132">
         <v>3000.0</v>
       </c>
       <c r="C25" s="55"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="117"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="123"/>
     </row>
     <row r="26">
-      <c r="A26" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="126">
+      <c r="A26" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="132">
         <v>1500.0</v>
       </c>
       <c r="C26" s="55"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="55"/>
     </row>
     <row r="27">
-      <c r="A27" s="112" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="126">
+      <c r="A27" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="132">
         <v>1000.0</v>
       </c>
       <c r="C27" s="55"/>
-      <c r="D27" s="127" t="s">
-        <v>206</v>
+      <c r="D27" s="133" t="s">
+        <v>212</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -15107,7 +15438,7 @@
     </row>
     <row r="28">
       <c r="A28" s="55"/>
-      <c r="B28" s="128">
+      <c r="B28" s="134">
         <f>SUM(B24:B27)</f>
         <v>10500</v>
       </c>
@@ -15125,8 +15456,8 @@
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
       <c r="I29" s="55"/>
@@ -15134,13 +15465,13 @@
     </row>
     <row r="30">
       <c r="A30" s="61" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
@@ -15148,14 +15479,14 @@
     </row>
     <row r="31">
       <c r="A31" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="116">
+        <v>213</v>
+      </c>
+      <c r="B31" s="122">
         <v>1200.0</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
-      <c r="E31" s="116"/>
+      <c r="E31" s="122"/>
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
@@ -15164,9 +15495,9 @@
     </row>
     <row r="32">
       <c r="A32" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="116">
+        <v>214</v>
+      </c>
+      <c r="B32" s="122">
         <v>0.0</v>
       </c>
       <c r="C32" s="55"/>
@@ -15180,9 +15511,9 @@
     </row>
     <row r="33">
       <c r="A33" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="116">
+        <v>215</v>
+      </c>
+      <c r="B33" s="122">
         <v>0.0</v>
       </c>
       <c r="C33" s="55"/>
@@ -15196,9 +15527,9 @@
     </row>
     <row r="34">
       <c r="A34" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="116">
+        <v>216</v>
+      </c>
+      <c r="B34" s="122">
         <f>25*12</f>
         <v>300</v>
       </c>
@@ -15213,9 +15544,9 @@
     </row>
     <row r="35">
       <c r="A35" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="116">
+        <v>217</v>
+      </c>
+      <c r="B35" s="122">
         <v>0.0</v>
       </c>
       <c r="C35" s="55"/>
@@ -15229,9 +15560,9 @@
     </row>
     <row r="36">
       <c r="A36" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="116">
+        <v>218</v>
+      </c>
+      <c r="B36" s="122">
         <f>25*12</f>
         <v>300</v>
       </c>
@@ -15246,9 +15577,9 @@
     </row>
     <row r="37">
       <c r="A37" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="116">
+        <v>219</v>
+      </c>
+      <c r="B37" s="122">
         <f>20*12</f>
         <v>240</v>
       </c>
@@ -15263,9 +15594,9 @@
     </row>
     <row r="38">
       <c r="A38" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="116"/>
+        <v>220</v>
+      </c>
+      <c r="B38" s="122"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -15276,10 +15607,10 @@
       <c r="J38" s="55"/>
     </row>
     <row r="39">
-      <c r="A39" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="130">
+      <c r="A39" s="135" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="136">
         <v>90.0</v>
       </c>
       <c r="C39" s="55"/>
@@ -15293,7 +15624,7 @@
     </row>
     <row r="40">
       <c r="A40" s="55"/>
-      <c r="B40" s="128">
+      <c r="B40" s="134">
         <f>SUM(B31:B39)</f>
         <v>2130</v>
       </c>
@@ -15332,7 +15663,7 @@
     </row>
     <row r="43">
       <c r="A43" s="61" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -15346,16 +15677,16 @@
     </row>
     <row r="44">
       <c r="A44" s="55" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="108">
+        <v>212</v>
+      </c>
+      <c r="C44" s="114">
         <v>12.0</v>
       </c>
-      <c r="D44" s="131" t="s">
-        <v>218</v>
+      <c r="D44" s="137" t="s">
+        <v>224</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
@@ -15366,16 +15697,16 @@
     </row>
     <row r="45">
       <c r="A45" s="55" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="108">
+        <v>226</v>
+      </c>
+      <c r="C45" s="114">
         <v>12.0</v>
       </c>
-      <c r="D45" s="107" t="s">
-        <v>221</v>
+      <c r="D45" s="113" t="s">
+        <v>227</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
@@ -15386,16 +15717,16 @@
     </row>
     <row r="46">
       <c r="A46" s="55" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="108">
+        <v>229</v>
+      </c>
+      <c r="C46" s="114">
         <v>90.0</v>
       </c>
-      <c r="D46" s="107" t="s">
-        <v>224</v>
+      <c r="D46" s="113" t="s">
+        <v>230</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="55"/>
@@ -15406,12 +15737,12 @@
     </row>
     <row r="47">
       <c r="A47" s="61" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="110">
+        <v>232</v>
+      </c>
+      <c r="C47" s="116">
         <f>SUM(C44:C46)</f>
         <v>114</v>
       </c>
@@ -15419,7 +15750,7 @@
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
       <c r="G47" s="60"/>
-      <c r="H47" s="110"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
     </row>
